--- a/Example bug-report.xlsx
+++ b/Example bug-report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Тестирование\Тестовые задания\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasilich\GitHub\stopproblem_tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3831D26E-6834-4F98-9013-6BE3806EBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823EC99-CB19-49F7-9BC6-1311E9062B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A450F1B1-772A-4678-BCC4-D7EA1454E32E}"/>
   </bookViews>
@@ -705,15 +705,15 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="53.109375" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
@@ -734,7 +734,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -745,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -774,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
@@ -803,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>21</v>
@@ -832,10 +832,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>24</v>
@@ -861,10 +861,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>27</v>
@@ -890,10 +890,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>32</v>
@@ -919,10 +919,10 @@
         <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>38</v>
@@ -948,10 +948,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>44</v>
@@ -977,10 +977,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>49</v>
@@ -1006,10 +1006,10 @@
         <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>55</v>
@@ -1035,10 +1035,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>60</v>
@@ -1064,10 +1064,10 @@
         <v>62</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>65</v>
